--- a/Semana 13 NFL 2025.xlsx
+++ b/Semana 13 NFL 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC429854-8148-4BA3-A1D9-2522587FD717}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4908FD6E-CEE0-4E9A-9E98-BA0F3684C1BB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -174,13 +174,43 @@
   </si>
   <si>
     <t>Pittsburgh - Steelers (Local)</t>
+  </si>
+  <si>
+    <t>ndmj@citlali.mx</t>
+  </si>
+  <si>
+    <t>Cleveland - Browns (Local)</t>
+  </si>
+  <si>
+    <t>Carolina - Panthers (Local)</t>
+  </si>
+  <si>
+    <t>kecg@citlali.mx</t>
+  </si>
+  <si>
+    <t>Houston - Texans</t>
+  </si>
+  <si>
+    <t>Minnesota - Vikings</t>
+  </si>
+  <si>
+    <t>jagm@citlali.mx</t>
+  </si>
+  <si>
+    <t>Jaime Antonio García Morales</t>
+  </si>
+  <si>
+    <t>aoa@citlali.mx</t>
+  </si>
+  <si>
+    <t>avo@citlali.mx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +242,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,9 +325,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W3" totalsRowShown="0">
-  <autoFilter ref="A1:W3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W8" totalsRowShown="0">
+  <autoFilter ref="A1:W8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="20">
       <extLst>
@@ -464,7 +498,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71UMlhTRlBEQlNRRDFJMlNUTTlBQ0dTNU5IVS4u" isFormConnected="1" maxResponseId="2" latestEventMarker="8">
+      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71UMlhTRlBEQlNRRDFJMlNUTTlBQ0dTNU5IVS4u" isFormConnected="1" maxResponseId="7" latestEventMarker="13">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -791,16 +825,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="23" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,8 +973,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -949,63 +983,408 @@
       <c r="C3" s="1">
         <v>45985.514259259297</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45985.558935185203</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45985.559594907398</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45985.466782407399</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45985.562673611101</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45985.5758333333</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45985.5796064815</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45985.735694444404</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45985.737743055601</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45986.381932870398</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45986.403321759302</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="3">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Semana 13 NFL 2025.xlsx
+++ b/Semana 13 NFL 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4908FD6E-CEE0-4E9A-9E98-BA0F3684C1BB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09AD289B-99A9-4174-AD51-46D16B7CB7BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -204,6 +204,48 @@
   </si>
   <si>
     <t>avo@citlali.mx</t>
+  </si>
+  <si>
+    <t>svg@citlali.mx</t>
+  </si>
+  <si>
+    <t>Chicago - Bears</t>
+  </si>
+  <si>
+    <t>jrgh@citlali.mx</t>
+  </si>
+  <si>
+    <t>aby@citlali.mx</t>
+  </si>
+  <si>
+    <t>gaas@citlali.mx</t>
+  </si>
+  <si>
+    <t>Gerardo Abraham Ayala Siqueiros</t>
+  </si>
+  <si>
+    <t>rhgr@citlali.mx</t>
+  </si>
+  <si>
+    <t>mba@citlali.mx</t>
+  </si>
+  <si>
+    <t>abh@citlali.mx</t>
+  </si>
+  <si>
+    <t>lma@citlali.mx</t>
+  </si>
+  <si>
+    <t>mtol@citlali.mx</t>
+  </si>
+  <si>
+    <t>mcm@citlali.mx</t>
+  </si>
+  <si>
+    <t>Arizona - Cardinals</t>
+  </si>
+  <si>
+    <t>Washington - Commanders (Local)</t>
   </si>
 </sst>
 </file>
@@ -325,13 +367,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W8" totalsRowShown="0">
-  <autoFilter ref="A1:W8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W18" totalsRowShown="0">
+  <autoFilter ref="A1:W18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="20">
       <extLst>
@@ -498,7 +536,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71UMlhTRlBEQlNRRDFJMlNUTTlBQ0dTNU5IVS4u" isFormConnected="1" maxResponseId="7" latestEventMarker="13">
+      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71UMlhTRlBEQlNRRDFJMlNUTTlBQ0dTNU5IVS4u" isFormConnected="1" maxResponseId="17" latestEventMarker="23">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -825,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1043,7 +1081,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1107,12 +1145,12 @@
       <c r="V4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -1176,12 +1214,12 @@
       <c r="V5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1245,12 +1283,12 @@
       <c r="V6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1314,12 +1352,12 @@
       <c r="V7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1383,8 +1421,698 @@
       <c r="V8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8">
         <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45986.506967592599</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45986.509085648097</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45986.631111111099</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45986.633738425902</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45986.634467592601</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45986.635763888902</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45986.940150463</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45986.952650462998</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45987.287476851903</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45987.289594907401</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45987.345787036997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45987.346516203703</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45987.363032407397</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45987.370034722197</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45987.407569444404</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45987.411643518499</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45987.440034722204</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45987.457175925898</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45987.456296296303</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45987.457291666702</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="3">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Semana 13 NFL 2025.xlsx
+++ b/Semana 13 NFL 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09AD289B-99A9-4174-AD51-46D16B7CB7BD}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D7AA93-F456-445D-A234-940271D3E6CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -246,6 +246,54 @@
   </si>
   <si>
     <t>Washington - Commanders (Local)</t>
+  </si>
+  <si>
+    <t>meg@citlali.mx</t>
+  </si>
+  <si>
+    <t>jjih@citlali.mx</t>
+  </si>
+  <si>
+    <t>aadl@citlali.mx</t>
+  </si>
+  <si>
+    <t>Tennessee - Titans (Local)</t>
+  </si>
+  <si>
+    <t>jcsg@citlali.mx</t>
+  </si>
+  <si>
+    <t>Jose Carlos Salgado Gomez</t>
+  </si>
+  <si>
+    <t>lalm@citlali.mx</t>
+  </si>
+  <si>
+    <t>Luis Alberto Lopez Monge</t>
+  </si>
+  <si>
+    <t>ebc@citlali.mx</t>
+  </si>
+  <si>
+    <t>cjps@citlali.mx</t>
+  </si>
+  <si>
+    <t>New York - Giants</t>
+  </si>
+  <si>
+    <t>ilr@citlali.mx</t>
+  </si>
+  <si>
+    <t>ecg@citlali.mx</t>
+  </si>
+  <si>
+    <t>dmcr@citlali.mx</t>
+  </si>
+  <si>
+    <t>jela@citlali.mx</t>
+  </si>
+  <si>
+    <t>jri@citlali.mx</t>
   </si>
 </sst>
 </file>
@@ -367,9 +415,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W18" totalsRowShown="0">
-  <autoFilter ref="A1:W18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W30" totalsRowShown="0">
+  <autoFilter ref="A1:W30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="20">
       <extLst>
@@ -536,7 +588,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71UMlhTRlBEQlNRRDFJMlNUTTlBQ0dTNU5IVS4u" isFormConnected="1" maxResponseId="17" latestEventMarker="23">
+      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71UMlhTRlBEQlNRRDFJMlNUTTlBQ0dTNU5IVS4u" isFormConnected="1" maxResponseId="29" latestEventMarker="23">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -863,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1840,7 +1892,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1904,12 +1956,12 @@
       <c r="V15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1973,12 +2025,12 @@
       <c r="V16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -2042,12 +2094,12 @@
       <c r="V17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -2111,8 +2163,836 @@
       <c r="V18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18">
         <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45987.669502314799</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45987.671956018501</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45987.705532407403</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45987.7090509259</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45987.701805555596</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45987.711828703701</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45987.710949074099</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45987.720254629603</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45987.706597222197</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45987.720520833303</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45987.452835648102</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45987.734976851803</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45987.720856481501</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45987.752372685201</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45987.975532407399</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45987.9772800926</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45988.394814814797</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45988.396990740701</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45987.690717592603</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45988.405057870397</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45988.409745370402</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45988.411585648202</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45988.444328703699</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45988.4452199074</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" s="3">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
